--- a/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200724.xlsx
+++ b/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200724.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="11520" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10339,12 +10339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -10420,40 +10420,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10471,22 +10442,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10502,6 +10475,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -10510,22 +10519,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10540,24 +10542,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10584,7 +10584,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10596,175 +10764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10775,21 +10775,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10826,6 +10811,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -10837,11 +10846,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10860,164 +10875,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11397,8 +11397,8 @@
   <sheetPr/>
   <dimension ref="A1:AT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="N16" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52:R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="Q2" s="17"/>
       <c r="R2" s="17">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="S2" s="19">
         <v>6</v>
@@ -14537,7 +14537,7 @@
       </c>
       <c r="Q44" s="19"/>
       <c r="R44" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S44" s="19"/>
       <c r="T44" s="19">
@@ -15142,9 +15142,6 @@
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R44 I53:X1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B53:B1048576">
-      <formula1>"国家级,省级,城市级,区县级"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK50 AQ50 AG53:AG1048576 AK2:AK49 AK51:AK1048576 AQ2:AQ49 AQ51:AQ1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
@@ -15153,6 +15150,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM50 AS50 AM2:AM49 AM51:AM1048576 AS2:AS49 AS51:AS1048576">
       <formula1>"核查通过,核查未通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B53:B1048576">
+      <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H53:H1048576">
       <formula1>INDIRECT($G53)</formula1>
